--- a/biology/Zoologie/Corasoides_nimbus/Corasoides_nimbus.xlsx
+++ b/biology/Zoologie/Corasoides_nimbus/Corasoides_nimbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corasoides nimbus est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corasoides nimbus est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée[1]. Elle se rencontre dans les provinces de Simbu et des Hautes-Terres méridionales entre 2 500 et 3 000 m d'altitude sur les monts Giluwe et Wilhelm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Elle se rencontre dans les provinces de Simbu et des Hautes-Terres méridionales entre 2 500 et 3 000 m d'altitude sur les monts Giluwe et Wilhelm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,3 mm de long sur 3,7 mm et l'abdomen 4,8 mm de long sur 3,3 mm et la carapace de la femelle paratype mesure 6,9 mm de long sur 5,3 mm et l'abdomen 10,0 mm de long sur 7,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,3 mm de long sur 3,7 mm et l'abdomen 4,8 mm de long sur 3,3 mm et la carapace de la femelle paratype mesure 6,9 mm de long sur 5,3 mm et l'abdomen 10,0 mm de long sur 7,9 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Humphrey, 2017 : A revision and cladistic analysis of the genus Corasoides Butler (Araneae: Desidae) with descriptions of nine new species. Records of the Australian Museum, vol. 69, no 1, p. 15-64 (texte intégral).</t>
         </is>
